--- a/medicine/Mort/Cimetière_de_Gennevilliers/Cimetière_de_Gennevilliers.xlsx
+++ b/medicine/Mort/Cimetière_de_Gennevilliers/Cimetière_de_Gennevilliers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gennevilliers</t>
+          <t>Cimetière_de_Gennevilliers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Gennevilliers est un cimetière communal se trouvant rue Villebois-Mareuil à Gennevilliers[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Gennevilliers est un cimetière communal se trouvant rue Villebois-Mareuil à Gennevilliers.
 La commune de Gennevilliers est membre du Syndicat intercommunal funéraire de la région parisienne.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gennevilliers</t>
+          <t>Cimetière_de_Gennevilliers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cimetière de Gennevilliers se trouve un monument aux morts pour la France de la Première Guerre mondiale, un carré militaire lié à la Seconde Guerre mondiale, et des stèles relatives aux guerres d’Indochine[2].
-Cimetière mais aussi parc paysager, des aménagements y ont été prévus pour la faune: ruches, hôtels à insectes, abris à hérissons, nichoirs[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cimetière de Gennevilliers se trouve un monument aux morts pour la France de la Première Guerre mondiale, un carré militaire lié à la Seconde Guerre mondiale, et des stèles relatives aux guerres d’Indochine.
+Cimetière mais aussi parc paysager, des aménagements y ont été prévus pour la faune: ruches, hôtels à insectes, abris à hérissons, nichoirs.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gennevilliers</t>
+          <t>Cimetière_de_Gennevilliers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière, créé en 1962, reçut à partir de 1986 jusqu'en 2008[4], les sépultures du cimetière ancien de Gennevilliers.
-Cet ancien cimetière était situé entre l'avenue Gabriel-Péri[5], la rue Georges-Thoretton, la rue du Puits-Guyon et l'avenue Claude-Debussy[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière, créé en 1962, reçut à partir de 1986 jusqu'en 2008, les sépultures du cimetière ancien de Gennevilliers.
+Cet ancien cimetière était situé entre l'avenue Gabriel-Péri, la rue Georges-Thoretton, la rue du Puits-Guyon et l'avenue Claude-Debussy.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Gennevilliers</t>
+          <t>Cimetière_de_Gennevilliers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un certain nombre des fusillés de Châteaubriant y sont inhumés[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre des fusillés de Châteaubriant y sont inhumés.
 </t>
         </is>
       </c>
